--- a/biology/Zoologie/Inimicus/Inimicus.xlsx
+++ b/biology/Zoologie/Inimicus/Inimicus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Inimicus est un genre de poissons de la famille des Synanceiidae (comme les poissons-pierre, même s'il est parfois encore rangé chez les Scorpaenidae)[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inimicus est un genre de poissons de la famille des Synanceiidae (comme les poissons-pierre, même s'il est parfois encore rangé chez les Scorpaenidae).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des poissons discrets qui vivent camouflées dans les substrats complexes, où ils chassent à l'affut. Ils sont capables de « marcher » sur le fond à l'aide de rayons de leurs nageoires pectorales modifiés en griffes articulées. Ils sont équipés d'aiguillons venimeux pour se protéger des prédateurs, et leur venin est extrêmement puissant. 
 Toutes les espèces sont tropicales, et vivent essentiellement dans les écosystèmes coralliens de l'Indo-Pacifique (principale le Pacifique occidental). 
@@ -543,9 +557,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (13 juin 2015)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (13 juin 2015) :
 			Inimicus didactylus
 			Inimicus filamentosus
 			Inimicus japonicus
